--- a/aci_build_mso_epg_static_binding.xlsx
+++ b/aci_build_mso_epg_static_binding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/pgomezve_cisco_com/Documents/Documents/Automation enablement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pgomezve/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D3A4527-89E9-DF46-B26F-F00A1A757579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F725CDDC-7551-D840-924F-3E29F931E114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30340" yWindow="4440" windowWidth="38460" windowHeight="24360" xr2:uid="{A9CD2B9B-B0A4-594B-AA2D-F7681573ED79}"/>
+    <workbookView xWindow="12280" yWindow="3840" windowWidth="38460" windowHeight="24360" xr2:uid="{A9CD2B9B-B0A4-594B-AA2D-F7681573ED79}"/>
   </bookViews>
   <sheets>
     <sheet name="aci_build_mso_epg_static_bindin" sheetId="18" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>PROD_AP</t>
   </si>
   <si>
-    <t>PROD-CO</t>
-  </si>
-  <si>
     <t>vpc</t>
   </si>
   <si>
@@ -103,27 +100,18 @@
     <t>untagged</t>
   </si>
   <si>
-    <t>PROD-CO-CA</t>
-  </si>
-  <si>
     <t>Site-1</t>
   </si>
   <si>
     <t>VLAN0169_EPG</t>
   </si>
   <si>
-    <t>SCH_BPD</t>
-  </si>
-  <si>
     <t>regular</t>
   </si>
   <si>
     <t>1/3</t>
   </si>
   <si>
-    <t>BPD_test_vpc_ipg</t>
-  </si>
-  <si>
     <t>full_epg</t>
   </si>
   <si>
@@ -134,6 +122,18 @@
   </si>
   <si>
     <t>ignored</t>
+  </si>
+  <si>
+    <t>SCH_TEST</t>
+  </si>
+  <si>
+    <t>PROD-SITE-1</t>
+  </si>
+  <si>
+    <t>PROD-STRETCH</t>
+  </si>
+  <si>
+    <t>Test_vpc_ipg</t>
   </si>
 </sst>
 </file>
@@ -300,10 +300,10 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left/>
+        <right style="medium">
           <color indexed="64"/>
-        </left>
-        <right/>
+        </right>
         <top/>
         <bottom/>
         <vertical/>
@@ -319,10 +319,10 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
+        <left style="medium">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
         <top/>
         <bottom/>
         <vertical/>
@@ -404,10 +404,10 @@
     <tableColumn id="13" xr3:uid="{D9C4797C-1C8F-734C-873A-D2DDDE45B219}" name="interface_policy_group"/>
     <tableColumn id="14" xr3:uid="{1820961E-DFC0-E84D-9A44-FEB5F87B1C70}" name="leaf_port" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{FC6195E0-2404-AD48-94CD-C35AD9051C61}" name="status" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{87EBCBDE-A763-0B45-9742-40AF06B3E25C}" name="full_epg" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{87EBCBDE-A763-0B45-9742-40AF06B3E25C}" name="full_epg" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.CONCAT(Tabla1[[#This Row],[epg_name]],"/",Tabla1[[#This Row],[app_profile_name]],"/",Tabla1[[#This Row],[tenant_name]],"/",Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[epg_template_name]],"/",Tabla1[[#This Row],[site_name]],"/","pod-",Tabla1[[#This Row],[pod_id]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E2A9865F-6F87-EB40-8E1A-03D83D2F69B9}" name="schema_site" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{E2A9865F-6F87-EB40-8E1A-03D83D2F69B9}" name="schema_site" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT(Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[site_name]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -715,7 +715,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,8 +731,8 @@
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
     <col min="13" max="13" width="22.1640625" customWidth="1"/>
     <col min="14" max="14" width="11" style="3" customWidth="1"/>
-    <col min="16" max="16" width="64" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -782,15 +782,15 @@
         <v>6</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -799,19 +799,19 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>164</v>
@@ -825,21 +825,21 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="8" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_name]],"/",Tabla1[[#This Row],[app_profile_name]],"/",Tabla1[[#This Row],[tenant_name]],"/",Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[epg_template_name]],"/",Tabla1[[#This Row],[site_name]],"/","pod-",Tabla1[[#This Row],[pod_id]])</f>
-        <v>VLAN0164_EPG/PROD_AP/PROD_TN/SCH_BPD/PROD-CO/Site-1/pod-1</v>
+        <v>VLAN0164_EPG/PROD_AP/PROD_TN/SCH_TEST/PROD-SITE-1/Site-1/pod-1</v>
       </c>
       <c r="Q2" s="9" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[site_name]])</f>
-        <v>SCH_BPD/Site-1</v>
+        <v>SCH_TEST/Site-1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -848,19 +848,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="I3" s="1">
         <v>164</v>
@@ -875,22 +875,22 @@
         <v>1104</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="6"/>
       <c r="P3" s="8" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_name]],"/",Tabla1[[#This Row],[app_profile_name]],"/",Tabla1[[#This Row],[tenant_name]],"/",Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[epg_template_name]],"/",Tabla1[[#This Row],[site_name]],"/","pod-",Tabla1[[#This Row],[pod_id]])</f>
-        <v>VLAN0164_EPG/PROD_AP/PROD_TN/SCH_BPD/PROD-CO/Site-1/pod-1</v>
+        <v>VLAN0164_EPG/PROD_AP/PROD_TN/SCH_TEST/PROD-SITE-1/Site-1/pod-1</v>
       </c>
       <c r="Q3" s="9" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[site_name]])</f>
-        <v>SCH_BPD/Site-1</v>
+        <v>SCH_TEST/Site-1</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -899,19 +899,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="I4" s="1">
         <v>164</v>
@@ -925,23 +925,23 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P4" s="11" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_name]],"/",Tabla1[[#This Row],[app_profile_name]],"/",Tabla1[[#This Row],[tenant_name]],"/",Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[epg_template_name]],"/",Tabla1[[#This Row],[site_name]],"/","pod-",Tabla1[[#This Row],[pod_id]])</f>
-        <v>VLAN0164_EPG/PROD_AP/PROD_TN/SCH_BPD/PROD-CO/Site-1/pod-1</v>
+        <v>VLAN0164_EPG/PROD_AP/PROD_TN/SCH_TEST/PROD-SITE-1/Site-1/pod-1</v>
       </c>
       <c r="Q4" s="12" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[site_name]])</f>
-        <v>SCH_BPD/Site-1</v>
+        <v>SCH_TEST/Site-1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -950,19 +950,19 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="I5" s="1">
         <v>169</v>
@@ -976,21 +976,21 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="8" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_name]],"/",Tabla1[[#This Row],[app_profile_name]],"/",Tabla1[[#This Row],[tenant_name]],"/",Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[epg_template_name]],"/",Tabla1[[#This Row],[site_name]],"/","pod-",Tabla1[[#This Row],[pod_id]])</f>
-        <v>VLAN0169_EPG/PROD_AP/PROD_TN/SCH_BPD/PROD-CO-CA/Site-1/pod-1</v>
+        <v>VLAN0169_EPG/PROD_AP/PROD_TN/SCH_TEST/PROD-STRETCH/Site-1/pod-1</v>
       </c>
       <c r="Q5" s="9" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[site_name]])</f>
-        <v>SCH_BPD/Site-1</v>
+        <v>SCH_TEST/Site-1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
@@ -999,19 +999,19 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="I6" s="1">
         <v>169</v>
@@ -1026,17 +1026,17 @@
         <v>1104</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="7"/>
       <c r="P6" s="8" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_name]],"/",Tabla1[[#This Row],[app_profile_name]],"/",Tabla1[[#This Row],[tenant_name]],"/",Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[epg_template_name]],"/",Tabla1[[#This Row],[site_name]],"/","pod-",Tabla1[[#This Row],[pod_id]])</f>
-        <v>VLAN0169_EPG/PROD_AP/PROD_TN/SCH_BPD/PROD-CO-CA/Site-1/pod-1</v>
+        <v>VLAN0169_EPG/PROD_AP/PROD_TN/SCH_TEST/PROD-STRETCH/Site-1/pod-1</v>
       </c>
       <c r="Q6" s="10" t="str">
         <f>_xlfn.CONCAT(Tabla1[[#This Row],[epg_schema_name]],"/",Tabla1[[#This Row],[site_name]])</f>
-        <v>SCH_BPD/Site-1</v>
+        <v>SCH_TEST/Site-1</v>
       </c>
     </row>
   </sheetData>
